--- a/klipfolio_refresher/data_sources/dataSourcesID.xlsx
+++ b/klipfolio_refresher/data_sources/dataSourcesID.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gemota, Jomael\PROGRAMMING\PROJECTS\Scrapers\scrapers\klipfolio_refresher\data_sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B363C72B-B457-4037-BB76-DFD5C5E5773A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE7CADF-FB79-4988-B933-2F6076DA4749}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{3E947DC1-A81D-4139-8686-78AB76492795}"/>
   </bookViews>
@@ -391,10 +391,13 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A2:A4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="33.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
